--- a/WHO-DATA-SETS/ExcelDataSets/20200208-sitrep-19-ncov.xlsx
+++ b/WHO-DATA-SETS/ExcelDataSets/20200208-sitrep-19-ncov.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\ExcelDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6E9A2F-BBCF-4E91-9B98-5643C1867BC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A22ED4E-463B-4069-892B-3731350CE127}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 3" sheetId="3" r:id="rId1"/>
-    <sheet name="Table 4" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -1378,7 +1377,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1460,15 +1459,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1512,7 +1502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1573,9 +1563,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1588,9 +1575,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1609,20 +1593,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1630,8 +1605,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1639,16 +1614,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
@@ -1989,10 +1961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G34" sqref="G33:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2002,992 +1974,911 @@
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="108" customHeight="1">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>24953</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>24953</v>
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1075</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1075</v>
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1048</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1048</v>
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7">
+        <v>981</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7">
-        <v>981</v>
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9">
+        <v>803</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9">
-        <v>803</v>
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7">
+        <v>733</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7">
-        <v>733</v>
+      <c r="A8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9">
+        <v>698</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9">
-        <v>698</v>
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7">
+        <v>439</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7">
-        <v>439</v>
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9">
+        <v>426</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7">
+        <v>407</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="9">
+        <v>363</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7">
+        <v>315</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="9">
+        <v>282</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7">
+        <v>281</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="9">
+        <v>239</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="7">
+        <v>195</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="9">
+        <v>195</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="7">
+        <v>183</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="9">
+        <v>138</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="11">
+        <v>123</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="13">
+        <v>104</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="9">
+        <v>99</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="7">
+        <v>89</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="9">
+        <v>81</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="11">
+        <v>71</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A27" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="13">
+        <v>69</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="9">
+        <v>50</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="7">
+        <v>45</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="9">
+        <v>42</v>
+      </c>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="7">
+        <v>26</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="9">
+        <v>18</v>
+      </c>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="7">
+        <v>16</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="9">
-        <v>426</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7">
-        <v>407</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
-        <v>363</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7">
-        <v>315</v>
-      </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9">
-        <v>282</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7">
-        <v>281</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9">
-        <v>239</v>
-      </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7">
-        <v>195</v>
-      </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9">
-        <v>195</v>
-      </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7">
-        <v>183</v>
-      </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9">
-        <v>138</v>
-      </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11">
-        <v>123</v>
-      </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A23" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="13">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A36" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="15">
+        <v>34598</v>
+      </c>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" ht="197.25">
+      <c r="A37" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17.25">
+      <c r="A38" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30">
+      <c r="A39" s="32"/>
+      <c r="B39" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30">
+      <c r="A40" s="32"/>
+      <c r="B40" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30">
+      <c r="A41" s="32"/>
+      <c r="B41" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30">
+      <c r="A42" s="32"/>
+      <c r="B42" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30">
+      <c r="A43" s="32"/>
+      <c r="B43" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30">
+      <c r="A44" s="32"/>
+      <c r="B44" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30">
+      <c r="A45" s="32"/>
+      <c r="B45" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30">
+      <c r="A46" s="33"/>
+      <c r="B46" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30">
+      <c r="A47" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30">
+      <c r="A48" s="35"/>
+      <c r="B48" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30">
+      <c r="A49" s="35"/>
+      <c r="B49" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30">
+      <c r="A50" s="36"/>
+      <c r="B50" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30">
+      <c r="A51" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30">
+      <c r="A52" s="36"/>
+      <c r="B52" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30">
+      <c r="A53" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30">
+      <c r="A54" s="38"/>
+      <c r="B54" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30">
+      <c r="A55" s="38"/>
+      <c r="B55" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30">
+      <c r="A56" s="38"/>
+      <c r="B56" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="30">
+      <c r="A57" s="38"/>
+      <c r="B57" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30">
+      <c r="A58" s="38"/>
+      <c r="B58" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30">
+      <c r="A59" s="38"/>
+      <c r="B59" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="30">
+      <c r="A60" s="38"/>
+      <c r="B60" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30">
+      <c r="A61" s="39"/>
+      <c r="B61" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30">
+      <c r="A62" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9">
-        <v>99</v>
-      </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="7">
-        <v>89</v>
-      </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9">
-        <v>81</v>
-      </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A27" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="11">
-        <v>71</v>
-      </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A28" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="13">
+      <c r="B62" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="9">
-        <v>50</v>
-      </c>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="7">
-        <v>45</v>
-      </c>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="9">
-        <v>42</v>
-      </c>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="7">
-        <v>26</v>
-      </c>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="9">
-        <v>18</v>
-      </c>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="7">
-        <v>16</v>
-      </c>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A35" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="9">
-        <v>10</v>
-      </c>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A36" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="7">
-        <v>1</v>
-      </c>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A37" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="15">
-        <v>34598</v>
-      </c>
-      <c r="C37" s="3"/>
+      <c r="E62" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30">
+      <c r="A63" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="G63" s="29" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="4.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="86.1" customHeight="1">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-    </row>
-    <row r="2" spans="1:8" ht="81.95" customHeight="1">
-      <c r="A2" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="25"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A5" s="38"/>
-      <c r="B5" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A7" s="38"/>
-      <c r="B7" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="25"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A9" s="38"/>
-      <c r="B9" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="25"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A10" s="38"/>
-      <c r="B10" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="25"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A11" s="39"/>
-      <c r="B11" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="25"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A12" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="25"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A13" s="41"/>
-      <c r="B13" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="25"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A14" s="41"/>
-      <c r="B14" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="25"/>
-    </row>
-    <row r="16" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A16" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="32"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A17" s="42"/>
-      <c r="B17" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="25"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A18" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="25"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A19" s="44"/>
-      <c r="B19" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="25"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A20" s="44"/>
-      <c r="B20" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="25"/>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A21" s="44"/>
-      <c r="B21" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="25"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A22" s="44"/>
-      <c r="B22" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="25"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="25"/>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" s="25"/>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="25"/>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A26" s="45"/>
-      <c r="B26" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" s="25"/>
-    </row>
-    <row r="27" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A27" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="G27" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="32"/>
-    </row>
-    <row r="28" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="G28" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="32"/>
-    </row>
-    <row r="29" spans="1:8" ht="99" customHeight="1">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A26"/>
+  <mergeCells count="4">
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WHO-DATA-SETS/ExcelDataSets/20200208-sitrep-19-ncov.xlsx
+++ b/WHO-DATA-SETS/ExcelDataSets/20200208-sitrep-19-ncov.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\ExcelDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A22ED4E-463B-4069-892B-3731350CE127}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A0C050-163B-40EC-B5D0-CC54735A7F83}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1502,15 +1502,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1518,77 +1512,29 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1596,32 +1542,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1963,8 +1921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G34" sqref="G33:G34"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1972,904 +1930,908 @@
     <col min="1" max="1" width="53.5" customWidth="1"/>
     <col min="2" max="2" width="58.1640625" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" customWidth="1"/>
+    <col min="6" max="6" width="34.5" customWidth="1"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="14">
         <v>24953</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="15">
         <v>1075</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="16">
         <v>1048</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="15">
         <v>981</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="16">
         <v>803</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="15">
         <v>733</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="16">
         <v>698</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="15">
         <v>439</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="16">
         <v>426</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="15">
         <v>407</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="16">
         <v>363</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="15">
         <v>315</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="16">
         <v>282</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="15">
         <v>281</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="16">
         <v>239</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="15">
         <v>195</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="16">
         <v>195</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="15">
         <v>183</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="16">
         <v>138</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="17">
         <v>123</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="18">
         <v>104</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="16">
         <v>99</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="15">
         <v>89</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="16">
         <v>81</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="17">
         <v>71</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="18">
         <v>69</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="16">
         <v>50</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="15">
         <v>45</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="16">
         <v>42</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="15">
         <v>26</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="16">
         <v>18</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="15">
         <v>16</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="16">
         <v>10</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="15">
         <v>1</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="19">
         <v>34598</v>
       </c>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" ht="197.25">
-      <c r="A37" s="16" t="s">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="62.25">
+      <c r="A37" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="G37" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.25">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="22" t="s">
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30">
-      <c r="A39" s="32"/>
-      <c r="B39" s="24" t="s">
+    <row r="39" spans="1:7" ht="15">
+      <c r="A39" s="22"/>
+      <c r="B39" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30">
-      <c r="A40" s="32"/>
-      <c r="B40" s="24" t="s">
+      <c r="F39" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15">
+      <c r="A40" s="22"/>
+      <c r="B40" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30">
-      <c r="A41" s="32"/>
-      <c r="B41" s="24" t="s">
+      <c r="F40" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15">
+      <c r="A41" s="22"/>
+      <c r="B41" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="30">
-      <c r="A42" s="32"/>
-      <c r="B42" s="24" t="s">
+      <c r="G41" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15">
+      <c r="A42" s="22"/>
+      <c r="B42" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G42" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="30">
-      <c r="A43" s="32"/>
-      <c r="B43" s="24" t="s">
+      <c r="E42" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15">
+      <c r="A43" s="22"/>
+      <c r="B43" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="30">
-      <c r="A44" s="32"/>
-      <c r="B44" s="24" t="s">
+      <c r="G43" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15">
+      <c r="A44" s="22"/>
+      <c r="B44" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F44" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="30">
-      <c r="A45" s="32"/>
-      <c r="B45" s="24" t="s">
+      <c r="F44" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15">
+      <c r="A45" s="22"/>
+      <c r="B45" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E45" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="26" t="s">
+      <c r="E45" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30">
-      <c r="A46" s="33"/>
-      <c r="B46" s="24" t="s">
+    <row r="46" spans="1:7" ht="15">
+      <c r="A46" s="23"/>
+      <c r="B46" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G46" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="30">
-      <c r="A47" s="34" t="s">
+      <c r="E46" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15">
+      <c r="A47" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="26" t="s">
+      <c r="F47" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G47" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="30">
-      <c r="A48" s="35"/>
-      <c r="B48" s="24" t="s">
+      <c r="G47" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15">
+      <c r="A48" s="22"/>
+      <c r="B48" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="30">
-      <c r="A49" s="35"/>
-      <c r="B49" s="24" t="s">
+      <c r="E48" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15">
+      <c r="A49" s="22"/>
+      <c r="B49" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G49" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="30">
-      <c r="A50" s="36"/>
-      <c r="B50" s="24" t="s">
+      <c r="E49" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15">
+      <c r="A50" s="23"/>
+      <c r="B50" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G50" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="30">
-      <c r="A51" s="34" t="s">
+      <c r="E50" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15">
+      <c r="A51" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E51" s="27" t="s">
+      <c r="E51" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F51" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G51" s="29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="30">
-      <c r="A52" s="36"/>
-      <c r="B52" s="24" t="s">
+      <c r="F51" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15">
+      <c r="A52" s="23"/>
+      <c r="B52" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E52" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F52" s="26" t="s">
+      <c r="E52" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G52" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="30">
-      <c r="A53" s="37" t="s">
+      <c r="G52" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15">
+      <c r="A53" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="D53" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E53" s="25" t="s">
+      <c r="E53" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G53" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="30">
-      <c r="A54" s="38"/>
-      <c r="B54" s="24" t="s">
+      <c r="F53" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15">
+      <c r="A54" s="22"/>
+      <c r="B54" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="25" t="s">
+      <c r="D54" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E54" s="25" t="s">
+      <c r="E54" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F54" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="30">
-      <c r="A55" s="38"/>
-      <c r="B55" s="24" t="s">
+      <c r="F54" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15">
+      <c r="A55" s="22"/>
+      <c r="B55" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="25" t="s">
+      <c r="D55" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E55" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G55" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="30">
-      <c r="A56" s="38"/>
-      <c r="B56" s="24" t="s">
+      <c r="E55" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="17.25">
+      <c r="A56" s="22"/>
+      <c r="B56" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E56" s="25" t="s">
+      <c r="E56" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F56" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G56" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="30">
-      <c r="A57" s="38"/>
-      <c r="B57" s="24" t="s">
+      <c r="F56" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15">
+      <c r="A57" s="22"/>
+      <c r="B57" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="25" t="s">
+      <c r="D57" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E57" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G57" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="30">
-      <c r="A58" s="38"/>
-      <c r="B58" s="24" t="s">
+      <c r="E57" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15">
+      <c r="A58" s="22"/>
+      <c r="B58" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G58" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="30">
-      <c r="A59" s="38"/>
-      <c r="B59" s="24" t="s">
+      <c r="E58" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15">
+      <c r="A59" s="22"/>
+      <c r="B59" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E59" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G59" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="30">
-      <c r="A60" s="38"/>
-      <c r="B60" s="24" t="s">
+      <c r="E59" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17.25">
+      <c r="A60" s="22"/>
+      <c r="B60" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D60" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E60" s="25" t="s">
+      <c r="D60" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F60" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G60" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="30">
-      <c r="A61" s="39"/>
-      <c r="B61" s="24" t="s">
+      <c r="F60" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15">
+      <c r="A61" s="23"/>
+      <c r="B61" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D61" s="25" t="s">
+      <c r="D61" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E61" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="30">
-      <c r="A62" s="20" t="s">
+      <c r="E61" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15">
+      <c r="A62" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D62" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E62" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F62" s="28" t="s">
+      <c r="E62" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="G62" s="29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="30">
-      <c r="A63" s="19" t="s">
+      <c r="G62" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="17.25">
+      <c r="A63" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D63" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E63" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F63" s="28" t="s">
+      <c r="D63" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="G63" s="29" t="s">
+      <c r="G63" s="11" t="s">
         <v>52</v>
       </c>
     </row>
